--- a/заказы/статистика филиалы/2024/04,24/04,04,24 ПОКОМ ЗПФ филиалы/дв 04,04,24 лгрсч пок зпф от филиала.xlsx
+++ b/заказы/статистика филиалы/2024/04,24/04,04,24 ПОКОМ ЗПФ филиалы/дв 04,04,24 лгрсч пок зпф от филиала.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\04,04,24 ПОКОМ ЗПФ филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2024\04,24\04,04,24 ПОКОМ ЗПФ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9AF102-BC9C-4DD0-BEFA-3AFF170DAB44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F645B2-33C8-4E3B-842F-D2DC838686E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="137">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -439,6 +439,9 @@
   </si>
   <si>
     <t>08,04,</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
 </sst>
 </file>
@@ -895,13 +898,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AZ500"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="T16" sqref="T16"/>
+      <selection pane="bottomRight" activeCell="AI35" sqref="AI35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1151,7 +1155,7 @@
       <c r="AY3" s="1"/>
       <c r="AZ3" s="1"/>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1225,7 +1229,7 @@
       <c r="AY4" s="1"/>
       <c r="AZ4" s="1"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1339,7 +1343,7 @@
       <c r="AY5" s="1"/>
       <c r="AZ5" s="1"/>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>34</v>
       </c>
@@ -1436,7 +1440,7 @@
       <c r="AY6" s="1"/>
       <c r="AZ6" s="1"/>
     </row>
-    <row r="7" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
@@ -1546,7 +1550,7 @@
       <c r="AY7" s="1"/>
       <c r="AZ7" s="1"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -1657,7 +1661,7 @@
       <c r="AY8" s="1"/>
       <c r="AZ8" s="1"/>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -1770,7 +1774,7 @@
       <c r="AY9" s="1"/>
       <c r="AZ9" s="1"/>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -1880,7 +1884,7 @@
       <c r="AY10" s="1"/>
       <c r="AZ10" s="1"/>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
@@ -1993,7 +1997,7 @@
       <c r="AY11" s="1"/>
       <c r="AZ11" s="1"/>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -2108,7 +2112,7 @@
       <c r="AY12" s="1"/>
       <c r="AZ12" s="1"/>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>44</v>
       </c>
@@ -2221,7 +2225,7 @@
       <c r="AY13" s="1"/>
       <c r="AZ13" s="1"/>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>45</v>
       </c>
@@ -2338,7 +2342,7 @@
       <c r="AY14" s="1"/>
       <c r="AZ14" s="1"/>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
@@ -2541,7 +2545,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AG16" s="1"/>
+      <c r="AG16" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
@@ -2562,7 +2568,7 @@
       <c r="AY16" s="1"/>
       <c r="AZ16" s="1"/>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>49</v>
       </c>
@@ -2661,7 +2667,7 @@
       <c r="AY17" s="1"/>
       <c r="AZ17" s="1"/>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
@@ -2866,7 +2872,9 @@
         <f t="shared" si="18"/>
         <v>14.8</v>
       </c>
-      <c r="AG19" s="1"/>
+      <c r="AG19" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
       <c r="AJ19" s="1"/>
@@ -2887,7 +2895,7 @@
       <c r="AY19" s="1"/>
       <c r="AZ19" s="1"/>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -3000,7 +3008,7 @@
       <c r="AY20" s="1"/>
       <c r="AZ20" s="1"/>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
@@ -3204,7 +3212,9 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AG22" s="1"/>
+      <c r="AG22" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="AH22" s="1"/>
       <c r="AI22" s="1"/>
       <c r="AJ22" s="1"/>
@@ -3225,7 +3235,7 @@
       <c r="AY22" s="1"/>
       <c r="AZ22" s="1"/>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
@@ -3407,7 +3417,9 @@
       </c>
       <c r="AE24" s="24"/>
       <c r="AF24" s="21"/>
-      <c r="AG24" s="1"/>
+      <c r="AG24" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
       <c r="AJ24" s="1"/>
@@ -3428,7 +3440,7 @@
       <c r="AY24" s="1"/>
       <c r="AZ24" s="1"/>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>58</v>
       </c>
@@ -3529,7 +3541,7 @@
       <c r="AY25" s="1"/>
       <c r="AZ25" s="1"/>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>61</v>
       </c>
@@ -3732,7 +3744,9 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AG27" s="1"/>
+      <c r="AG27" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="AH27" s="1"/>
       <c r="AI27" s="1"/>
       <c r="AJ27" s="1"/>
@@ -3753,7 +3767,7 @@
       <c r="AY27" s="1"/>
       <c r="AZ27" s="1"/>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>64</v>
       </c>
@@ -3865,7 +3879,7 @@
       <c r="AY28" s="1"/>
       <c r="AZ28" s="1"/>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>66</v>
       </c>
@@ -3977,7 +3991,7 @@
       <c r="AY29" s="1"/>
       <c r="AZ29" s="1"/>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>67</v>
       </c>
@@ -4092,7 +4106,7 @@
       <c r="AY30" s="1"/>
       <c r="AZ30" s="1"/>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>68</v>
       </c>
@@ -4202,7 +4216,7 @@
       <c r="AY31" s="1"/>
       <c r="AZ31" s="1"/>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>69</v>
       </c>
@@ -4315,7 +4329,7 @@
       <c r="AY32" s="1"/>
       <c r="AZ32" s="1"/>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>70</v>
       </c>
@@ -4427,7 +4441,7 @@
       <c r="AY33" s="1"/>
       <c r="AZ33" s="1"/>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>71</v>
       </c>
@@ -4628,7 +4642,9 @@
         <f t="shared" si="23"/>
         <v>9</v>
       </c>
-      <c r="AG35" s="1"/>
+      <c r="AG35" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="AH35" s="1"/>
       <c r="AI35" s="1"/>
       <c r="AJ35" s="1"/>
@@ -4649,7 +4665,7 @@
       <c r="AY35" s="1"/>
       <c r="AZ35" s="1"/>
     </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>73</v>
       </c>
@@ -4851,7 +4867,9 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AG37" s="1"/>
+      <c r="AG37" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="AH37" s="1"/>
       <c r="AI37" s="1"/>
       <c r="AJ37" s="1"/>
@@ -4961,7 +4979,9 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AG38" s="1"/>
+      <c r="AG38" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="AH38" s="1"/>
       <c r="AI38" s="1"/>
       <c r="AJ38" s="1"/>
@@ -5074,7 +5094,9 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AG39" s="1"/>
+      <c r="AG39" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="AH39" s="1"/>
       <c r="AI39" s="1"/>
       <c r="AJ39" s="1"/>
@@ -5095,7 +5117,7 @@
       <c r="AY39" s="1"/>
       <c r="AZ39" s="1"/>
     </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>78</v>
       </c>
@@ -5281,7 +5303,9 @@
         <f t="shared" ref="AF41:AF45" si="29">AE41*AD41*G41</f>
         <v>0</v>
       </c>
-      <c r="AG41" s="1"/>
+      <c r="AG41" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="AH41" s="1"/>
       <c r="AI41" s="1"/>
       <c r="AJ41" s="1"/>
@@ -5389,7 +5413,9 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AG42" s="1"/>
+      <c r="AG42" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="AH42" s="1"/>
       <c r="AI42" s="1"/>
       <c r="AJ42" s="1"/>
@@ -5410,7 +5436,7 @@
       <c r="AY42" s="1"/>
       <c r="AZ42" s="1"/>
     </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>82</v>
       </c>
@@ -5614,7 +5640,9 @@
         <f t="shared" si="29"/>
         <v>13.76</v>
       </c>
-      <c r="AG44" s="1"/>
+      <c r="AG44" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="AH44" s="1"/>
       <c r="AI44" s="1"/>
       <c r="AJ44" s="1"/>
@@ -5635,7 +5663,7 @@
       <c r="AY44" s="1"/>
       <c r="AZ44" s="1"/>
     </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>84</v>
       </c>
@@ -5745,7 +5773,7 @@
       <c r="AY45" s="1"/>
       <c r="AZ45" s="1"/>
     </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>85</v>
       </c>
@@ -5846,7 +5874,7 @@
       <c r="AY46" s="1"/>
       <c r="AZ46" s="1"/>
     </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>87</v>
       </c>
@@ -5956,7 +5984,7 @@
       <c r="AY47" s="1"/>
       <c r="AZ47" s="1"/>
     </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
         <v>88</v>
       </c>
@@ -6146,7 +6174,9 @@
         <f t="shared" ref="AF49:AF54" si="34">AE49*AD49*G49</f>
         <v>0</v>
       </c>
-      <c r="AG49" s="1"/>
+      <c r="AG49" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="AH49" s="1"/>
       <c r="AI49" s="1"/>
       <c r="AJ49" s="1"/>
@@ -6167,7 +6197,7 @@
       <c r="AY49" s="1"/>
       <c r="AZ49" s="1"/>
     </row>
-    <row r="50" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>91</v>
       </c>
@@ -6277,7 +6307,7 @@
       <c r="AY50" s="1"/>
       <c r="AZ50" s="1"/>
     </row>
-    <row r="51" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>92</v>
       </c>
@@ -6390,7 +6420,7 @@
       <c r="AY51" s="1"/>
       <c r="AZ51" s="1"/>
     </row>
-    <row r="52" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>93</v>
       </c>
@@ -6503,7 +6533,7 @@
       <c r="AY52" s="1"/>
       <c r="AZ52" s="1"/>
     </row>
-    <row r="53" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>94</v>
       </c>
@@ -6705,7 +6735,9 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AG54" s="1"/>
+      <c r="AG54" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="AH54" s="1"/>
       <c r="AI54" s="1"/>
       <c r="AJ54" s="1"/>
@@ -6726,7 +6758,7 @@
       <c r="AY54" s="1"/>
       <c r="AZ54" s="1"/>
     </row>
-    <row r="55" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>96</v>
       </c>
@@ -6827,7 +6859,7 @@
       <c r="AY55" s="1"/>
       <c r="AZ55" s="1"/>
     </row>
-    <row r="56" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>97</v>
       </c>
@@ -6939,7 +6971,7 @@
       <c r="AY56" s="1"/>
       <c r="AZ56" s="1"/>
     </row>
-    <row r="57" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>98</v>
       </c>
@@ -7052,7 +7084,7 @@
       <c r="AY57" s="1"/>
       <c r="AZ57" s="1"/>
     </row>
-    <row r="58" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>99</v>
       </c>
@@ -7165,7 +7197,7 @@
       <c r="AY58" s="1"/>
       <c r="AZ58" s="1"/>
     </row>
-    <row r="59" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>100</v>
       </c>
@@ -7369,7 +7401,9 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AG60" s="1"/>
+      <c r="AG60" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="AH60" s="1"/>
       <c r="AI60" s="1"/>
       <c r="AJ60" s="1"/>
@@ -7390,7 +7424,7 @@
       <c r="AY60" s="1"/>
       <c r="AZ60" s="1"/>
     </row>
-    <row r="61" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
         <v>102</v>
       </c>
@@ -7582,7 +7616,9 @@
         <f t="shared" ref="AF62:AF64" si="45">AE62*AD62*G62</f>
         <v>0</v>
       </c>
-      <c r="AG62" s="1"/>
+      <c r="AG62" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="AH62" s="1"/>
       <c r="AI62" s="1"/>
       <c r="AJ62" s="1"/>
@@ -7695,7 +7731,9 @@
         <f t="shared" si="45"/>
         <v>4.8000000000000007</v>
       </c>
-      <c r="AG63" s="1"/>
+      <c r="AG63" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="AH63" s="1"/>
       <c r="AI63" s="1"/>
       <c r="AJ63" s="1"/>
@@ -7805,7 +7843,9 @@
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AG64" s="1"/>
+      <c r="AG64" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="AH64" s="1"/>
       <c r="AI64" s="1"/>
       <c r="AJ64" s="1"/>
@@ -7826,7 +7866,7 @@
       <c r="AY64" s="1"/>
       <c r="AZ64" s="1"/>
     </row>
-    <row r="65" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
         <v>106</v>
       </c>
@@ -7927,7 +7967,7 @@
       <c r="AY65" s="1"/>
       <c r="AZ65" s="1"/>
     </row>
-    <row r="66" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
         <v>107</v>
       </c>
@@ -8117,7 +8157,9 @@
         <f>AE67*AD67*G67</f>
         <v>0</v>
       </c>
-      <c r="AG67" s="1"/>
+      <c r="AG67" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="AH67" s="1"/>
       <c r="AI67" s="1"/>
       <c r="AJ67" s="1"/>
@@ -8138,7 +8180,7 @@
       <c r="AY67" s="1"/>
       <c r="AZ67" s="1"/>
     </row>
-    <row r="68" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
         <v>109</v>
       </c>
@@ -8239,7 +8281,7 @@
       <c r="AY68" s="1"/>
       <c r="AZ68" s="1"/>
     </row>
-    <row r="69" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>110</v>
       </c>
@@ -8340,7 +8382,7 @@
       <c r="AY69" s="1"/>
       <c r="AZ69" s="1"/>
     </row>
-    <row r="70" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
         <v>111</v>
       </c>
@@ -8441,7 +8483,7 @@
       <c r="AY70" s="1"/>
       <c r="AZ70" s="1"/>
     </row>
-    <row r="71" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="20" t="s">
         <v>112</v>
       </c>
@@ -8540,7 +8582,7 @@
       <c r="AY71" s="1"/>
       <c r="AZ71" s="1"/>
     </row>
-    <row r="72" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>113</v>
       </c>
@@ -8650,7 +8692,7 @@
       <c r="AY72" s="1"/>
       <c r="AZ72" s="1"/>
     </row>
-    <row r="73" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>114</v>
       </c>
@@ -8763,7 +8805,7 @@
       <c r="AY73" s="1"/>
       <c r="AZ73" s="1"/>
     </row>
-    <row r="74" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>115</v>
       </c>
@@ -8873,7 +8915,7 @@
       <c r="AY74" s="1"/>
       <c r="AZ74" s="1"/>
     </row>
-    <row r="75" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>116</v>
       </c>
@@ -8986,7 +9028,7 @@
       <c r="AY75" s="1"/>
       <c r="AZ75" s="1"/>
     </row>
-    <row r="76" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>117</v>
       </c>
@@ -9096,7 +9138,7 @@
       <c r="AY76" s="1"/>
       <c r="AZ76" s="1"/>
     </row>
-    <row r="77" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>118</v>
       </c>
@@ -9209,7 +9251,7 @@
       <c r="AY77" s="1"/>
       <c r="AZ77" s="1"/>
     </row>
-    <row r="78" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>119</v>
       </c>
@@ -9317,7 +9359,7 @@
       <c r="AY78" s="1"/>
       <c r="AZ78" s="1"/>
     </row>
-    <row r="79" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>120</v>
       </c>
@@ -9516,7 +9558,9 @@
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="AG80" s="1"/>
+      <c r="AG80" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="AH80" s="1"/>
       <c r="AI80" s="1"/>
       <c r="AJ80" s="1"/>
@@ -9537,7 +9581,7 @@
       <c r="AY80" s="1"/>
       <c r="AZ80" s="1"/>
     </row>
-    <row r="81" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>122</v>
       </c>
@@ -9650,7 +9694,7 @@
       <c r="AY81" s="1"/>
       <c r="AZ81" s="1"/>
     </row>
-    <row r="82" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>123</v>
       </c>
@@ -9763,7 +9807,7 @@
       <c r="AY82" s="1"/>
       <c r="AZ82" s="1"/>
     </row>
-    <row r="83" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>124</v>
       </c>
@@ -9873,7 +9917,7 @@
       <c r="AY83" s="1"/>
       <c r="AZ83" s="1"/>
     </row>
-    <row r="84" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>125</v>
       </c>
@@ -9983,7 +10027,7 @@
       <c r="AY84" s="1"/>
       <c r="AZ84" s="1"/>
     </row>
-    <row r="85" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:52" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>126</v>
       </c>
@@ -32507,7 +32551,24 @@
       <c r="AZ500" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AF85" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:AF85" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="8">
+      <filters blank="1">
+        <filter val="матрица"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="15">
+      <filters>
+        <filter val="0"/>
+        <filter val="1"/>
+        <filter val="2"/>
+        <filter val="3"/>
+        <filter val="4"/>
+        <filter val="5"/>
+        <filter val="6"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
